--- a/steam_upcoming_games.xlsx
+++ b/steam_upcoming_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,6 +955,1810 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>911 Operator - Interactive Movie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Action, Adventure</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Iron Wolf Studio S.A.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Games Operators</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Games Operators</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>October 2023</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://ironwolfstudio.com/</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1506470/911_Operator__Interactive_Movie/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Beer Factory</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Indie, Simulation</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AKEL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CreativeForge Games</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>October 2023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1782570/Beer_Factory/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jusant</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Indie</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DON'T NOD</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DON'T NOD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>31 Oct, 2023</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://dont-nod.com/</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1977170/Jusant/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Little Goody Two Shoes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Adventure, RPG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>AstralShift</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Square Enix</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>31 Oct, 2023</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://little-goody-two-shoes.square-enix-games.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://twitter.com/AstralShiftPro</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1812370/Little_Goody_Two_Shoes/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Headbangers: Rhythm Royale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Casual</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Glee-Cheese Studio</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Team17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Team17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>31 Oct, 2023</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.headbangers.game/</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1761620/Headbangers_Rhythm_Royale/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Age of Empires II: Definitive Edition - The Mountain Royals</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Forgotten Empires</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Xbox Game Studios</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Age of Empires</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>31 Oct, 2023</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.ageofempires.com/games/aoeiide/</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2555420/Age_of_Empires_II_Definitive_Edition__The_Mountain_Royals/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Underrail: Heavy Duty</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Indie, RPG</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Stygian Software</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=http://www.underrail.com</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2604510/Underrail_Heavy_Duty/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>This Bed We Made</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Adventure, Indie</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lowbirth Games</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lowbirth Games</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.lowbirthgames.com/</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://twitter.com/LowbirthGames</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1243850/This_Bed_We_Made/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Song of Nunu: A League of Legends Story</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tequila Works</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Riot Forge</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://songofnunu.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1333200/Song_of_Nunu_A_League_of_Legends_Story/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alien Hominid HD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Action, Indie</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>The Behemoth</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>The Behemoth</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>The Behemoth</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.alienhominid.com</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1285360/Alien_Hominid_HD/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alien Hominid Invasion</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The Behemoth</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>The Behemoth</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>The Behemoth</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.alienhominidinvasion.com/</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/843200/Alien_Hominid_Invasion/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fantasy of Caocao 2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Adventure, Casual, Indie, RPG, Strategy</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sunny Game</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sunny Game</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://foc.lspsp.me/</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1913420/Fantasy_of_Caocao_2/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Magicraft</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Indie, RPG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wave Game</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>bilibili</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>bilibili</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2103140/Magicraft/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PHANTOM GALAXIES™</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Action, Adventure, RPG, Early Access</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Blowfish Studios</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Blowfish Studios</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Blowfish Studios</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.phantomgalaxies.com/</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1272550/PHANTOM_GALAXIES/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>The Smurfs 2 - The Prisoner of the Green Stone</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Action, Adventure</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OSome Studio</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Microids</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2397500/The_Smurfs_2__The_Prisoner_of_the_Green_Stone/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>STAR OCEAN THE SECOND STORY R</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Action, RPG</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Square Enix</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Square Enix</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Star Ocean</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.starocean2r.com</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@squareenixna/</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2238900/STAR_OCEAN_THE_SECOND_STORY_R/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Thirsty Suitors</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Action, Adventure, RPG</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Outerloop Games</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Annapurna Interactive</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Annapurna Interactive</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1617220/Thirsty_Suitors/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Slime 3K: Rise Against Despot</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Action, Indie, RPG, Early Access</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Konfa Games</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>tinyBuild</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>tinyBuild</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2348610/Slime_3K_Rise_Against_Despot/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RoboCop: Rogue City</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Action, Adventure</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Teyon</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nacon</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nacon</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Noun Town Language Learning</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Adventure, Casual, Simulation, Early Access</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Noun Town</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Noun Town</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://linktr.ee/noun.town</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2313720/Noun_Town_Language_Learning/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gangs of Sherwood</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Action, Adventure</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Appeal Studios</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Nacon</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Nacon</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1351000/Gangs_of_Sherwood/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>The Talos Principle 2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Action, Adventure</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Croteam</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Devolver Digital</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>The Talos Principle</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=http://talosprinciple.com</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/835960/The_Talos_Principle_2/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>For The King II</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Adventure, Indie, RPG, Strategy</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>IronOak Games</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Curve Games</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Curve Games</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.ironoakgames.com</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1676840/For_The_King_II/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Guns Undarkness</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RPG</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shoji meguro</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Shoji meguro</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1801140/Guns_Undarkness/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Back to the Dawn</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Adventure, Indie, RPG, Simulation, Strategy, Early Access</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Metal Head Games</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Spiral Up Games</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://twitter.com/backtothedawn</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCVjhBMEeic_pf1LSrUglNQA/</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1735700/Back_to_the_Dawn/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>WRC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Racing, Simulation, Sports</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Codemasters</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Electronic Arts</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>EA SPORTS</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.ea.com/games/ea-sports-wrc/wrc/</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1849250/WRC/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Insatia</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Action, Indie, Simulation</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kozinaka</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Kozinaka Labs</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=http://insatia.kozinaka.com</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://twitter.com/insatiagame</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/Kozinaka/</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/563530/Insatia/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Iron Marines Invasion</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Action, Indie, Strategy</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ironhide Game Studio</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ironhide Game Studio</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Iron Marines</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>3 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.ironmarines.com/</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2187920/Iron_Marines_Invasion/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ebenezer and the Invisible World</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Casual, Indie</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Orbit Studio</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Play on Worlds</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.ebenezerinvisibleworld.com/</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2351120/Ebenezer_and_the_Invisible_World/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>StrangerZ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Action, Indie, Simulation, Strategy, Free to Play</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Lost Frame Development</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Lost Frame Development</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>STRANGER</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://lostframedevelopment.com</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://twitter.com/will_codesVR</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@lostframedevelopment/</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2293600/StrangerZ/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ratopia</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Casual, Indie, Simulation, Strategy, Early Access</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Cassel Games</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cassel Games</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ratropolis</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>5 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.casselgames.com/</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2244130/Ratopia/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Immersion Pack - Europa Universalis IV: King of Kings</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Simulation, Strategy</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Paradox Tinto</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Paradox Interactive</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Europa Universalis</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=http://www.europauniversalis4.com</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://twitter.com/E_Universalis</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/paradoxgrandstrategy/</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2502910/Immersion_Pack__Europa_Universalis_IV_King_of_Kings/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cursorblade</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Action, Casual, Indie</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RealPeach</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RealPeach</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2449040/Cursorblade/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The Elephant Collection</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Action, Adventure</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wonderful Elephant (jmtb02)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Armor Games Studios</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Wonderful Elephant</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.wonderfulelephant.com</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2274110/The_Elephant_Collection/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Survivors of the Dawn</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Casual, Indie, RPG, Early Access</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>indieGiant</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>indieGiant</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>indieGiant</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=http://indiegiantgames.com/</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://twitter.com/devfurkan</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2285630/Survivors_of_the_Dawn/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The Invincible</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Indie</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Starward Industries</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>11 bit studios</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://invinciblethegame.com/</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://twitter.com/StarwardInd</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UChzBVVehIGcosN6pxsKbXqA/</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/731040/The_Invincible/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Football Manager 2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Simulation, Sports, Strategy</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sports Interactive</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SEGA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/linkfilter/?url=https://www.footballmanager.com/</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2252570/Football_Manager_2024/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Racine</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Dark Root Gardeners</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Goblinz Publishing</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Goblinz Publishing</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/1793170/Racine/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Kuroinu 2 Redux</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Shiravune</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Shiravune</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>6 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2544760/Kuroinu_2_Redux/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>The Awakener: Forgotten Oath</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Action, RPG</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TANER GAMES</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Gamera Games</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>7 Nov, 2023</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://store.steampowered.com/app/2527660/The_Awakener_Forgotten_Oath/?snr=1_7_7_popularcomingsoon_150_1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
